--- a/docs/results_table.xlsx
+++ b/docs/results_table.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\yingz\gitrepos\CW2\new\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\yingz\gitrepos\CW2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394D740F-EF6D-42CE-A266-0550C8B22F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EA01C7E-B70F-4864-90A2-638C1F171647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="48">
   <si>
     <t>Source Code</t>
   </si>
@@ -33,9 +45,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>Normalization/Scaling</t>
   </si>
   <si>
@@ -60,20 +69,125 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>30% reserved test set (same dist. of labels as entire training data)</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>LR</t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>20% hold-out test set (same dist. of labels as entire training data)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>5-fold</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>Base LogReg</t>
+  </si>
+  <si>
+    <t>LogReg</t>
+  </si>
+  <si>
+    <t>Compared to A1: Less FP, More FN. Better at detecting normal, worse at detecting attacks</t>
+  </si>
+  <si>
+    <t>MinMaxScaler</t>
+  </si>
+  <si>
+    <t>C value = 2222</t>
+  </si>
+  <si>
+    <t>C value = 10000</t>
+  </si>
+  <si>
+    <t>This is the max. C value. There is a possibility that the model is overfitting the training data and might not perform as well in the final test data.</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>This is the adjusted C value. C value from A2 was taken.</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>kNN</t>
+  </si>
+  <si>
+    <t>Base kNN, k=3</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>k=1</t>
+  </si>
+  <si>
+    <t>k=1 means this is the most complex kNN model, likely to overfit</t>
+  </si>
+  <si>
+    <t>k=3 with scaling</t>
+  </si>
+  <si>
+    <t>k=3</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>StandardScaler</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>k=3 with standard scaling, results skewed towards attacks</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>Poor score</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>StandardScaling does wonders to SVC</t>
+  </si>
+  <si>
+    <t>kernel and gamma</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>Default wins</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>LinearSVC</t>
+  </si>
+  <si>
+    <t>loss and penalty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +195,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,14 +237,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -384,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,97 +584,429 @@
     <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>0.86583333333333301</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="I2">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3">
-        <v>0.7</v>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.899166666666666</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.918333333333333</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7">
+        <v>0.95166666666666599</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.93916666666666604</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>0.94333333333333302</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>0.87416666666666598</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>0.87416666666666598</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.89666666666666595</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>